--- a/src/main/resources/templates/adcp_vi.xlsx
+++ b/src/main/resources/templates/adcp_vi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\neo\nbd-api\src\main\resources\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{530A330B-49FC-49A6-B843-746E78C6A6A9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03E4C57D-58B8-4ED1-8067-F3C008FC562D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{79984187-C45F-4096-B0E6-46317A7DC8DE}"/>
   </bookViews>
@@ -57,9 +57,6 @@
     <t>riverName</t>
   </si>
   <si>
-    <t>Dữ liệu LISS</t>
-  </si>
-  <si>
     <t>Tên sông</t>
   </si>
   <si>
@@ -157,6 +154,9 @@
   </si>
   <si>
     <t>note</t>
+  </si>
+  <si>
+    <t>Dữ liệu ADCP</t>
   </si>
 </sst>
 </file>
@@ -277,14 +277,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -603,7 +603,7 @@
   <dimension ref="A1:V5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -619,28 +619,28 @@
     <col min="9" max="9" width="23.5703125" style="3" customWidth="1"/>
     <col min="10" max="10" width="29.7109375" style="3" customWidth="1"/>
     <col min="11" max="11" width="22.5703125" style="3" customWidth="1"/>
-    <col min="12" max="12" width="20.7109375" style="15" customWidth="1"/>
-    <col min="13" max="13" width="19" style="15" customWidth="1"/>
-    <col min="14" max="14" width="20.140625" style="15" customWidth="1"/>
-    <col min="15" max="15" width="18" style="15" customWidth="1"/>
-    <col min="16" max="16" width="17.7109375" style="15" customWidth="1"/>
+    <col min="12" max="12" width="20.7109375" style="14" customWidth="1"/>
+    <col min="13" max="13" width="19" style="14" customWidth="1"/>
+    <col min="14" max="14" width="20.140625" style="14" customWidth="1"/>
+    <col min="15" max="15" width="18" style="14" customWidth="1"/>
+    <col min="16" max="16" width="17.7109375" style="14" customWidth="1"/>
     <col min="17" max="17" width="21.5703125" style="3" customWidth="1"/>
     <col min="18" max="18" width="22.140625" style="3" customWidth="1"/>
     <col min="19" max="19" width="22.42578125" style="3" customWidth="1"/>
-    <col min="20" max="20" width="24.7109375" style="15" customWidth="1"/>
-    <col min="21" max="21" width="28.28515625" style="15" customWidth="1"/>
+    <col min="20" max="20" width="24.7109375" style="14" customWidth="1"/>
+    <col min="21" max="21" width="28.28515625" style="14" customWidth="1"/>
     <col min="22" max="22" width="22.140625" style="3" customWidth="1"/>
     <col min="23" max="16384" width="8.85546875" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
+      <c r="A1" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -665,55 +665,55 @@
         <v>4</v>
       </c>
       <c r="F3" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="12" t="s">
-        <v>12</v>
-      </c>
       <c r="H3" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="12" t="s">
+      <c r="J3" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="K3" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="J3" s="12" t="s">
+      <c r="L3" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="M3" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="N3" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="K3" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="L3" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="M3" s="16" t="s">
+      <c r="O3" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="P3" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="N3" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="O3" s="16" t="s">
+      <c r="Q3" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="R3" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="S3" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="T3" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="U3" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="V3" s="12" t="s">
         <v>33</v>
-      </c>
-      <c r="P3" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q3" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="R3" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="S3" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="T3" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="U3" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="V3" s="12" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:22" ht="17.25" x14ac:dyDescent="0.25">
@@ -724,7 +724,7 @@
         <v>6</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>7</v>
@@ -736,52 +736,52 @@
         <v>9</v>
       </c>
       <c r="G4" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="10" t="s">
-        <v>14</v>
-      </c>
       <c r="I4" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="J4" s="7" t="s">
+      <c r="L4" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="M4" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="N4" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="K4" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="M4" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="N4" s="7" t="s">
-        <v>32</v>
-      </c>
       <c r="O4" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="Q4" s="7" t="s">
+      <c r="R4" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="R4" s="7" t="s">
+      <c r="S4" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="S4" s="7" t="s">
+      <c r="T4" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="T4" s="7" t="s">
+      <c r="U4" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="U4" s="7" t="s">
+      <c r="V4" s="6" t="s">
         <v>42</v>
-      </c>
-      <c r="V4" s="6" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
